--- a/tests/fixtures/excel/SimulationStatus_TEST.xlsx
+++ b/tests/fixtures/excel/SimulationStatus_TEST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SIMULATION" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,106 +397,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Project</v>
+        <v>AREA</v>
       </c>
       <c r="B1" t="str">
-        <v>Area</v>
+        <v>ASSEMBLY LINE</v>
       </c>
       <c r="C1" t="str">
-        <v>Line</v>
+        <v>STATION</v>
       </c>
       <c r="D1" t="str">
-        <v>Station</v>
+        <v>ROBOT</v>
       </c>
       <c r="E1" t="str">
-        <v>Robot</v>
+        <v>APPLICATION</v>
       </c>
       <c r="F1" t="str">
-        <v>Sim_Status</v>
+        <v>PERSONS RESPONSIBLE</v>
       </c>
       <c r="G1" t="str">
-        <v>Olp_Status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>P_TEST</v>
-      </c>
-      <c r="B2" t="str">
-        <v>BodyShop</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Line1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>10</v>
-      </c>
-      <c r="E2" t="str">
-        <v>R1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>100%</v>
-      </c>
-      <c r="G2" t="str">
-        <v>100%</v>
+        <v>ROBOT POSITION - STAGE 1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>DCS CONFIGURED</v>
+      </c>
+      <c r="I1" t="str">
+        <v>DRESS PACK &amp; FRYING PAN CONFIGURED - STAGE 1</v>
+      </c>
+      <c r="J1" t="str">
+        <v>ROBOT TYPE CONFIRMED</v>
+      </c>
+      <c r="K1" t="str">
+        <v>ROBOT RISER CONFIRMED</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>P_TEST</v>
+        <v>Body Shop</v>
       </c>
       <c r="B3" t="str">
-        <v>BodyShop</v>
+        <v>Line A</v>
       </c>
       <c r="C3" t="str">
-        <v>Line1</v>
+        <v>OP10</v>
       </c>
       <c r="D3" t="str">
-        <v>20</v>
+        <v>R1</v>
       </c>
       <c r="E3" t="str">
-        <v>R2</v>
+        <v>Spot Weld</v>
       </c>
       <c r="F3" t="str">
-        <v>50%</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0%</v>
+        <v>John Doe</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>P_TEST</v>
+        <v>Body Shop</v>
       </c>
       <c r="B4" t="str">
-        <v>BodyShop</v>
+        <v>Line A</v>
       </c>
       <c r="C4" t="str">
-        <v>Line2</v>
+        <v>OP20</v>
       </c>
       <c r="D4" t="str">
-        <v>10</v>
+        <v>R1</v>
       </c>
       <c r="E4" t="str">
-        <v>R3</v>
+        <v>Handling</v>
       </c>
       <c r="F4" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0%</v>
+        <v>Jane Smith</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Body Shop</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Line A</v>
+      </c>
+      <c r="C5" t="str">
+        <v>OP30</v>
+      </c>
+      <c r="D5" t="str">
+        <v>R1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Sealing</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Bob Jones</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TOTAL</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>